--- a/DBA组/4.8SQL需求文档/4.8SQL表格/Student表.xlsx
+++ b/DBA组/4.8SQL需求文档/4.8SQL表格/Student表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>Student表</t>
   </si>
@@ -101,6 +101,30 @@
   </si>
   <si>
     <t>密保答案</t>
+  </si>
+  <si>
+    <t>Bcourse</t>
+  </si>
+  <si>
+    <t>已买课程</t>
+  </si>
+  <si>
+    <t>Fcourse</t>
+  </si>
+  <si>
+    <t>已上课程</t>
+  </si>
+  <si>
+    <t>Lcourse</t>
+  </si>
+  <si>
+    <t>剩余课程</t>
+  </si>
+  <si>
+    <t>Rcourse</t>
+  </si>
+  <si>
+    <t>退回课程</t>
   </si>
 </sst>
 </file>
@@ -108,10 +132,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -123,9 +147,86 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -138,45 +239,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,14 +261,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -211,17 +275,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,39 +289,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,60 +305,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -371,97 +443,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,6 +575,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -560,7 +644,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,62 +667,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,10 +680,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -662,7 +692,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -671,128 +701,128 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -817,10 +847,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1142,10 +1190,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B15"/>
+      <selection activeCell="E22" sqref="E22:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -1184,7 +1232,7 @@
       <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="8"/>
+      <c r="I2" s="12"/>
       <c r="J2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1198,7 +1246,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="9"/>
+      <c r="I3" s="13"/>
       <c r="J3" s="6"/>
     </row>
     <row r="4" ht="10" customHeight="1" spans="1:10">
@@ -1222,7 +1270,7 @@
         <v>13</v>
       </c>
       <c r="H4" s="4"/>
-      <c r="I4" s="8"/>
+      <c r="I4" s="12"/>
       <c r="J4" s="3" t="s">
         <v>13</v>
       </c>
@@ -1235,7 +1283,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="9"/>
+      <c r="I5" s="13"/>
       <c r="J5" s="6"/>
     </row>
     <row r="6" ht="10" customHeight="1" spans="2:10">
@@ -1256,7 +1304,7 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="8"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" ht="10" customHeight="1" spans="2:10">
@@ -1267,7 +1315,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="9"/>
+      <c r="I7" s="13"/>
       <c r="J7" s="6"/>
     </row>
     <row r="8" ht="10" customHeight="1" spans="2:10">
@@ -1288,7 +1336,7 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="8"/>
+      <c r="I8" s="12"/>
       <c r="J8" s="3"/>
     </row>
     <row r="9" ht="10" customHeight="1" spans="2:10">
@@ -1299,7 +1347,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="9"/>
+      <c r="I9" s="13"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" ht="10" customHeight="1" spans="2:10">
@@ -1320,7 +1368,7 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="8"/>
+      <c r="I10" s="12"/>
       <c r="J10" s="3"/>
     </row>
     <row r="11" ht="10" customHeight="1" spans="2:10">
@@ -1331,7 +1379,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="9"/>
+      <c r="I11" s="13"/>
       <c r="J11" s="6"/>
     </row>
     <row r="12" ht="10" customHeight="1" spans="2:10">
@@ -1352,7 +1400,7 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="8"/>
+      <c r="I12" s="12"/>
       <c r="J12" s="3"/>
     </row>
     <row r="13" ht="10" customHeight="1" spans="2:10">
@@ -1363,7 +1411,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="9"/>
+      <c r="I13" s="13"/>
       <c r="J13" s="6"/>
     </row>
     <row r="14" ht="13" customHeight="1" spans="2:10">
@@ -1386,7 +1434,7 @@
       <c r="H14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="8"/>
+      <c r="I14" s="12"/>
       <c r="J14" s="3"/>
     </row>
     <row r="15" ht="13" customHeight="1" spans="2:10">
@@ -1397,7 +1445,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="9"/>
+      <c r="I15" s="13"/>
       <c r="J15" s="6"/>
     </row>
     <row r="16" ht="10" customHeight="1" spans="2:10">
@@ -1418,7 +1466,7 @@
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="8"/>
+      <c r="I16" s="12"/>
       <c r="J16" s="3"/>
     </row>
     <row r="17" ht="10" customHeight="1" spans="2:10">
@@ -1429,7 +1477,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="9"/>
+      <c r="I17" s="13"/>
       <c r="J17" s="6"/>
     </row>
     <row r="18" ht="10" customHeight="1" spans="2:10">
@@ -1450,7 +1498,7 @@
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="8"/>
+      <c r="I18" s="12"/>
       <c r="J18" s="3"/>
     </row>
     <row r="19" ht="10" customHeight="1" spans="2:10">
@@ -1461,11 +1509,139 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="9"/>
+      <c r="I19" s="13"/>
       <c r="J19" s="6"/>
     </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="8">
+        <v>255</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="8">
+        <v>255</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="8">
+        <v>255</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="10"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="8">
+        <v>255</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="74">
+  <mergeCells count="106">
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B2:B3"/>
@@ -1477,6 +1653,10 @@
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C6:C7"/>
@@ -1486,6 +1666,10 @@
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="D6:D7"/>
@@ -1495,6 +1679,10 @@
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E7"/>
@@ -1504,6 +1692,10 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F7"/>
@@ -1513,6 +1705,10 @@
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G7"/>
@@ -1522,6 +1718,10 @@
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="J6:J7"/>
@@ -1531,6 +1731,10 @@
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="J26:J27"/>
     <mergeCell ref="H2:I3"/>
     <mergeCell ref="H4:I5"/>
     <mergeCell ref="H6:I7"/>
@@ -1540,6 +1744,10 @@
     <mergeCell ref="H14:I15"/>
     <mergeCell ref="H16:I17"/>
     <mergeCell ref="H18:I19"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="H22:I23"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="H26:I27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/DBA组/4.8SQL需求文档/4.8SQL表格/Student表.xlsx
+++ b/DBA组/4.8SQL需求文档/4.8SQL表格/Student表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18650" windowHeight="7110"/>
+    <workbookView windowWidth="14150" windowHeight="6840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>Student表</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>登录表id</t>
+  </si>
+  <si>
+    <t>是(login_id)</t>
   </si>
   <si>
     <t>question</t>
@@ -132,10 +135,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -148,6 +151,42 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,6 +200,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -170,45 +257,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,11 +271,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,58 +292,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -311,187 +314,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,6 +578,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -599,6 +632,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -614,17 +656,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,39 +675,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -680,145 +683,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1193,7 +1196,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:E23"/>
+      <selection activeCell="H14" sqref="H14:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -1432,7 +1435,7 @@
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="3"/>
@@ -1450,10 +1453,10 @@
     </row>
     <row r="16" ht="10" customHeight="1" spans="2:10">
       <c r="B16" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>16</v>
@@ -1482,10 +1485,10 @@
     </row>
     <row r="18" ht="10" customHeight="1" spans="2:10">
       <c r="B18" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>16</v>
@@ -1514,10 +1517,10 @@
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>16</v>
@@ -1546,10 +1549,10 @@
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>16</v>
@@ -1578,10 +1581,10 @@
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>16</v>
@@ -1610,10 +1613,10 @@
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>16</v>
